--- a/アルバム登録_結合テスト.xlsx
+++ b/アルバム登録_結合テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9523B1C2-4219-4210-9BC7-7CF222536BCA}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF7112E-5076-41BA-A5D9-5636C1418558}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -182,16 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.「確認する」ボタンを押す</t>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.すべての項目を入力する</t>
     <rPh sb="6" eb="8">
       <t>コウモク</t>
@@ -202,22 +192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.アカウント登録確認画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.他の項目も正しいで形式で入力する</t>
     <rPh sb="2" eb="3">
       <t>ホカ</t>
@@ -237,16 +211,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.「確認する」を押す。</t>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ページは遷移せず「指定されている形式で入力してください。」の表示</t>
     <rPh sb="30" eb="32">
       <t>ヒョウジ</t>
@@ -368,34 +332,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「タイトル」に指定された文字で入力した際にブログ登録確認画面に遷移するか</t>
-    <rPh sb="7" eb="9">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「タイトル」に指定されていない形式で入力した際、ページは遷移せず「指定されている形式で入力してください。」と表示されるか</t>
     <rPh sb="7" eb="9">
       <t>シテイ</t>
@@ -427,165 +363,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.ブログ登録確認画面の「登録する」ボタンを押す</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.ブログ登録完了画面に遷移する</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ログインしない状態で、blog-regist.phpをURLに直打ちする</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>チョクウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ブログ登録画面の「タイトル」に指定された文字を入力</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.「確認する」を押し、ブログ登録確認画面に遷移する</t>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ブログ登録画面の「タイトル」に指定された文字を入力</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ブログ登録画面の「内容」に指定外の文字を入力</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.ブログ登録画面の「内容」に指定外の文字を入力</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブログ登録確認画面に遷移する</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.通知一覧画面に遷移</t>
     <rPh sb="2" eb="4">
       <t>ツウチ</t>
@@ -619,37 +396,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「写真」に指定された文字で入力した際にブログ登録確認画面に遷移するか</t>
-    <rPh sb="1" eb="3">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「写真」に指定されていない形式で入力した際、ページは遷移せず「指定されている形式で入力してください。」と表示されるか</t>
     <rPh sb="1" eb="3">
       <t>シャシン</t>
@@ -977,6 +723,241 @@
     <t>アルバム「タイトル」が登録されました。</t>
     <rPh sb="11" eb="13">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、album-regist.phpをURLに直打ちする</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバム登録完了画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「タイトル」に指定された文字で入力した際にアルバム登録完了画面に遷移するか</t>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「写真」に指定された文字で入力した際にアルバム登録完了画面に遷移するか</t>
+    <rPh sb="1" eb="3">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アルバム登録画面の「タイトル」に指定された文字を入力</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.「登録」を押し、アルバム登録完了画面に遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アルバム登録画面の「タイトル」に指定された文字を入力</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.「登録」を押す。</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アルバム登録画面の「内容」に指定外の文字を入力</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アルバム登録画面の「内容」に指定外の文字を入力</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.「登録」ボタンを押す</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アカウント登録完了画面に遷移</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アルバム登録画面の「登録」ボタンを押す</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1740,7 +1721,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1751,7 +1732,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1764,7 +1745,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1791,12 +1772,12 @@
         <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>45797</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1830,26 +1811,26 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G8" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1859,7 +1840,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1872,7 +1853,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1881,26 +1862,26 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G11" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -1910,7 +1891,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1923,7 +1904,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1932,26 +1913,26 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G14" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -1961,7 +1942,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1974,7 +1955,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1983,26 +1964,26 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G17" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -2012,7 +1993,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2025,7 +2006,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2034,26 +2015,26 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G20" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -2063,7 +2044,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2076,7 +2057,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2085,26 +2066,26 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G23" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -2114,7 +2095,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2123,26 +2104,26 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G25" s="4">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -2153,7 +2134,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
@@ -2174,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2186,7 +2167,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2199,7 +2180,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2225,13 +2206,13 @@
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3">
-        <v>45797</v>
+      <c r="C4" s="4">
+        <v>46001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2272,19 +2253,19 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G9" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -2294,7 +2275,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2310,16 +2291,20 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="G11" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2328,7 +2313,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2344,16 +2329,20 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="G13" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2376,16 +2365,20 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="G15" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2394,7 +2387,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2410,19 +2403,19 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G17" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -2434,7 +2427,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2447,7 +2440,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2463,19 +2456,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G20" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -2485,7 +2478,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2498,7 +2491,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2507,26 +2500,26 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G23" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -2543,26 +2536,26 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G25" s="4">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -2578,21 +2571,25 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>9</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="G27" s="4">
+        <v>46002</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
@@ -2602,7 +2599,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>

--- a/アルバム登録_結合テスト.xlsx
+++ b/アルバム登録_結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF7112E-5076-41BA-A5D9-5636C1418558}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52D2F53E-771C-44E8-B0B5-359A3767B56C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1720,7 +1720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -2155,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2590,7 +2590,9 @@
       <c r="G27" s="4">
         <v>46002</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
